--- a/pred_ohlcv/54_21/2019-10-29 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 IOST ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1603240.864926332</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1491425.219726332</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1240826.125426332</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1106640.679426332</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1282549.039726332</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1235154.131626332</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1067650.202426333</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1105700.751426333</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1124064.110926333</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1126625.110926333</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1106625.110926333</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1104625.110926333</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1191096.638426333</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1280091.577026333</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-861951.1336263327</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-834317.1336263327</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-894092.1336263327</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-549335.0740263327</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-547932.0990263327</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-610759.0990263327</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-680749.0988263327</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-984686.8566263327</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 IOST ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-1714144.010561816</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1608651.106861816</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1603651.106861816</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1603240.864926332</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1608240.864926332</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1496462.001426332</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1491425.219726332</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1427024.771226332</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1223526.378626332</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1240826.125426332</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1106640.679426332</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1282549.039726332</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1278979.039726332</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1235154.131626332</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1067650.202426333</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1105700.751426333</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1102649.751426333</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1124064.110926333</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1126625.110926333</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1106625.110926333</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1104625.110926333</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1191096.638426333</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1280091.577026333</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-861951.1336263327</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-834317.1336263327</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-894092.1336263327</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-695959.1336263327</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-549335.0740263327</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-549355.0740263327</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-547932.0990263327</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-610759.0990263327</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-680749.0988263327</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-680739.0988263327</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-984686.8566263327</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
